--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleaz\Desktop\Semestre 3\Algoritmos\HD5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979DE170-6C79-41FD-8C25-806D666D6958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FE4540-01BF-4051-B2E9-502033657C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D64FDE4B-37EA-4B1D-B774-B9A35243B084}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>numero de procesos</t>
   </si>
@@ -54,12 +54,18 @@
   <si>
     <t>Desviacion estadar</t>
   </si>
+  <si>
+    <t xml:space="preserve">Se modificó el número de cpu o núcleos a 2 en vez de 1 para esta ocurrencia del experimento. Esto no se muestra en la captura de pantalla. </t>
+  </si>
+  <si>
+    <t>IMPORTANTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +75,15 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -106,6 +121,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,6 +160,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Dos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> Nucleos o CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -643,6 +694,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Capacidad de RAM 100 y 6 instrucciones por ciclo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1147,6 +1223,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Capacidad de RAM de 200</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1651,6 +1752,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Capacidad de RAM </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> 100</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4369,15 +4500,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143771</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47883</xdr:rowOff>
+      <xdr:colOff>29471</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57408</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4400,7 +4531,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5438775"/>
+          <a:off x="619125" y="5191125"/>
           <a:ext cx="6420746" cy="1848108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4412,16 +4543,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5001,14 +5132,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD31CA50-68CE-4AB1-A393-FBF6F01434E5}">
-  <dimension ref="B5:E11"/>
+  <dimension ref="B5:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5113,7 +5246,51 @@
         <v>40.757821335297102</v>
       </c>
     </row>
+    <row r="17" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C17:E22"/>
+    <mergeCell ref="B17:B22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5125,7 +5302,7 @@
   <dimension ref="B5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5246,7 +5423,7 @@
   <dimension ref="B5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,7 +5544,7 @@
   <dimension ref="B5:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
